--- a/airflow/data_analysis/classify_elastic/structured_data/excels_recursos_naturales/recursos.xlsx
+++ b/airflow/data_analysis/classify_elastic/structured_data/excels_recursos_naturales/recursos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempo atmosférico" sheetId="1" state="visible" r:id="rId2"/>
@@ -582,22 +582,22 @@
     <t xml:space="preserve">01/02/2018 - 30/11/2018</t>
   </si>
   <si>
+    <t xml:space="preserve">Sí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apta para el baño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playa San Telmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playa Martiánez</t>
+  </si>
+  <si>
     <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apta para el baño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excelente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playa San Telmo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playa Martiánez</t>
   </si>
   <si>
     <t xml:space="preserve">http://www3.gobiernodecanarias.org/sanidad/scs/mapa.jsp?idDocument=e200513a-a2fa-11e0-9610-f1717f4d08a3&amp;idCarpeta=df4c5b0a-acc9-11dd-bcc2-dd39af5a7493</t>
@@ -1087,12 +1087,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="14" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -3845,16 +3845,16 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -3902,7 +3902,7 @@
         <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>186</v>
@@ -3913,13 +3913,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>186</v>
@@ -3960,8 +3960,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4064,11 +4064,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -4110,7 +4110,7 @@
         <v>209</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>210</v>
@@ -4127,7 +4127,7 @@
         <v>213</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>214</v>
@@ -4144,7 +4144,7 @@
         <v>216</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>210</v>
@@ -4161,7 +4161,7 @@
         <v>218</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>214</v>
@@ -4175,7 +4175,7 @@
         <v>220</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>214</v>
@@ -4192,7 +4192,7 @@
         <v>223</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>210</v>
@@ -4209,7 +4209,7 @@
         <v>225</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>226</v>
@@ -4226,7 +4226,7 @@
         <v>229</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>230</v>
@@ -4243,7 +4243,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>230</v>
@@ -4260,7 +4260,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>235</v>
@@ -4277,7 +4277,7 @@
         <v>237</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>210</v>
@@ -4294,7 +4294,7 @@
         <v>239</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>240</v>
@@ -4311,7 +4311,7 @@
         <v>243</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>244</v>
@@ -4328,7 +4328,7 @@
         <v>246</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>214</v>
@@ -4345,7 +4345,7 @@
         <v>248</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>214</v>
@@ -4359,7 +4359,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>210</v>
@@ -4376,7 +4376,7 @@
         <v>252</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>210</v>
@@ -4393,7 +4393,7 @@
         <v>255</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>210</v>
